--- a/resources/experiment 2/metrics/R2/incidence/Microalbuminuria (INC).xlsx
+++ b/resources/experiment 2/metrics/R2/incidence/Microalbuminuria (INC).xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0.8944602796882041</v>
+      </c>
+      <c r="C2" t="n">
         <v>0.8944602796882039</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.8944602796882041</v>
-      </c>
       <c r="D2" t="n">
-        <v>0.8944602796882041</v>
+        <v>0.8944602796882039</v>
       </c>
     </row>
     <row r="3">
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9767313311699667</v>
+        <v>0.9991192367107327</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9767313311699667</v>
+        <v>0.9987285627517402</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9767313311699667</v>
+        <v>0.9806305037591442</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9993548064572905</v>
+        <v>0.9987837031296761</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9993548301141227</v>
+        <v>0.9981038032102866</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9993548301141227</v>
+        <v>0.994749339258567</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8729845911836044</v>
+        <v>0.9994027109757438</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8729845911836044</v>
+        <v>0.9993431277534596</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8729845911836044</v>
+        <v>0.9990875095672079</v>
       </c>
     </row>
   </sheetData>
